--- a/inst/extdata/example1b_scaleInfo.xlsx
+++ b/inst/extdata/example1b_scaleInfo.xlsx
@@ -12,20 +12,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">varName</t>
   </si>
   <si>
-    <t xml:space="preserve">Quelle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anzahl_valider_Werte</t>
   </si>
   <si>
     <t xml:space="preserve">Items_der_Skala</t>
   </si>
   <si>
+    <t xml:space="preserve">Imputationen</t>
+  </si>
+  <si>
     <t xml:space="preserve">skala1</t>
   </si>
   <si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">skala1_item1,skala1_item2,skala1_item3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">skala_fake_item</t>
@@ -400,48 +403,56 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4"/>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5"/>
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
